--- a/data/trans_bre/P38A-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P38A-Habitat-trans_bre.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P38A-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P38A-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,64%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,04%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,38; 9,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,49; 8,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,18; 3,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,93; 11,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,06; 9,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,52; 3,76</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,69%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,71; 4,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,38; 9,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,07; 8,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,04; 5,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,55; 11,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 10,6</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,64</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,38%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,94; 8,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,55; 12,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,23; 22,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,31; 10,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,72; 15,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,16; 35,28</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,12</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,72</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,3</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,73%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,64; 8,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,28; 11,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,68; 12,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,89; 10,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,95; 13,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,16; 16,03</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,98%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,37; 8,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,16; 6,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,32; 8,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,7; 9,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,18; 7,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,42; 11,47</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,25</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,48</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,9%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,72; 5,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,54; 7,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,75; 11,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,12; 6,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,38; 9,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,49; 14,33</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P38A-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P38A-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>4,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,64%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,04%</t>
+          <t>3,52%</t>
         </is>
       </c>
     </row>
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 9,8</t>
+          <t>-2,11; 4,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 8,35</t>
+          <t>0,99; 8,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 3,55</t>
+          <t>-0,42; 7,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 11,96</t>
+          <t>-2,35; 5,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 9,89</t>
+          <t>1,14; 9,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 3,76</t>
+          <t>-0,46; 9,22</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>5,07</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,24</t>
+          <t>9,53</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>22,81</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>34,73%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 4,46</t>
+          <t>1,94; 8,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,38; 9,59</t>
+          <t>6,55; 12,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,07; 8,92</t>
+          <t>4,69; 54,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 5,21</t>
+          <t>2,31; 10,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 11,77</t>
+          <t>7,72; 15,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,08; 10,6</t>
+          <t>5,72; 159,36</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,07</t>
+          <t>5,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,53</t>
+          <t>7,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,64</t>
+          <t>8,95</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>10,72%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,94; 8,2</t>
+          <t>1,64; 8,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,55; 12,34</t>
+          <t>4,28; 11,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,23; 22,73</t>
+          <t>4,44; 15,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 10,12</t>
+          <t>1,89; 10,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,72; 15,32</t>
+          <t>4,95; 13,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,16; 35,28</t>
+          <t>5,05; 19,9</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,12</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,72</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,3</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>1,51%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 8,49</t>
+          <t>2,37; 8,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,28; 11,29</t>
+          <t>-0,16; 6,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,68; 12,85</t>
+          <t>-17,41; 8,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 10,23</t>
+          <t>2,7; 9,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,95; 13,88</t>
+          <t>-0,18; 7,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,16; 16,03</t>
+          <t>-20,99; 10,65</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,19</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>6,25</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>10,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>13,63%</t>
         </is>
       </c>
     </row>
@@ -962,124 +962,44 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,37; 8,11</t>
+          <t>2,72; 5,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 6,21</t>
+          <t>4,54; 7,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 8,95</t>
+          <t>3,15; 28,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,7; 9,64</t>
+          <t>3,12; 6,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 7,59</t>
+          <t>5,38; 9,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 11,47</t>
+          <t>3,76; 46,28</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>4,36</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>6,25</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6,48</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>5,11%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>7,48%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>7,9%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>2,72; 5,85</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>4,54; 7,8</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>3,75; 11,17</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>3,12; 6,91</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>5,38; 9,44</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>4,49; 14,33</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1088,7 +1008,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P38A-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P38A-Habitat-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 4,51</t>
+          <t>-1,98; 5,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,99; 8,22</t>
+          <t>0,57; 7,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 7,84</t>
+          <t>-0,48; 7,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 5,23</t>
+          <t>-2,22; 6,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 9,96</t>
+          <t>0,63; 9,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 9,22</t>
+          <t>-0,54; 8,76</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,94; 8,2</t>
+          <t>1,76; 8,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,55; 12,34</t>
+          <t>6,63; 12,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,69; 54,54</t>
+          <t>4,83; 52,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,31; 10,12</t>
+          <t>2,07; 10,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,72; 15,32</t>
+          <t>7,85; 15,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,72; 159,36</t>
+          <t>5,76; 147,43</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 8,49</t>
+          <t>1,95; 8,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,28; 11,29</t>
+          <t>4,42; 11,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,44; 15,65</t>
+          <t>4,55; 15,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 10,23</t>
+          <t>2,23; 10,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 13,88</t>
+          <t>5,16; 13,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,05; 19,9</t>
+          <t>5,13; 18,91</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,37; 8,11</t>
+          <t>2,32; 8,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 6,21</t>
+          <t>0,25; 6,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,41; 8,48</t>
+          <t>-16,08; 8,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,7; 9,64</t>
+          <t>2,66; 9,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 7,59</t>
+          <t>0,33; 7,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,99; 10,65</t>
+          <t>-19,14; 10,32</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,72; 5,85</t>
+          <t>2,81; 6,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,54; 7,8</t>
+          <t>4,7; 7,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,15; 28,34</t>
+          <t>3,28; 28,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,12; 6,91</t>
+          <t>3,3; 7,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,38; 9,44</t>
+          <t>5,54; 9,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,76; 46,28</t>
+          <t>3,91; 46,0</t>
         </is>
       </c>
     </row>
